--- a/public/documents/excel/Данные по пользователям по обучениям.xlsx
+++ b/public/documents/excel/Данные по пользователям по обучениям.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Фамилия</t>
   </si>
@@ -40,147 +40,417 @@
     <t>Подразделение сотрудников</t>
   </si>
   <si>
+    <t>Лузгачев</t>
+  </si>
+  <si>
+    <t>Юрий</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>21-11-2020</t>
+  </si>
+  <si>
+    <t>25-11-2020</t>
+  </si>
+  <si>
+    <t>Внутреннее</t>
+  </si>
+  <si>
+    <t>Статистика - внутреннее общеобразовательное обучение</t>
+  </si>
+  <si>
+    <t>Группа автоматики, связи и технических средств организации дорожного движения</t>
+  </si>
+  <si>
+    <t>Абросимов</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Анатольевич</t>
+  </si>
+  <si>
+    <t>07-12-2020</t>
+  </si>
+  <si>
+    <t>22-12-2020</t>
+  </si>
+  <si>
+    <t>Внутреннее профессиональное 1</t>
+  </si>
+  <si>
+    <t>Отдел контроля и исполнения контрактов</t>
+  </si>
+  <si>
+    <t>Автомонова</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>23-12-2020</t>
+  </si>
+  <si>
+    <t>29-12-2020</t>
+  </si>
+  <si>
+    <t>Я рисую граф лучше всех</t>
+  </si>
+  <si>
+    <t>Группа аналитического и проектного  обеспечения организации дорожного движения</t>
+  </si>
+  <si>
+    <t>Ахматова</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>15-09-2020</t>
+  </si>
+  <si>
+    <t>24-09-2020</t>
+  </si>
+  <si>
+    <t>Управление транспортного планирования</t>
+  </si>
+  <si>
+    <t>Воронцов</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>28-12-2020</t>
+  </si>
+  <si>
+    <t>30-12-2020</t>
+  </si>
+  <si>
+    <t>Разведение голубей</t>
+  </si>
+  <si>
+    <t>Отдел по развитию транспортных систем и транспортной инфраструктуры</t>
+  </si>
+  <si>
+    <t>Ефремов</t>
+  </si>
+  <si>
+    <t>Денисович</t>
+  </si>
+  <si>
+    <t>21-10-2020</t>
+  </si>
+  <si>
+    <t>23-10-2020</t>
+  </si>
+  <si>
+    <t>Отдел разработки маршрутов</t>
+  </si>
+  <si>
+    <t>Гришенков</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Евгеньевич</t>
+  </si>
+  <si>
+    <t>10-11-2020</t>
+  </si>
+  <si>
+    <t>12-11-2020</t>
+  </si>
+  <si>
+    <t>Статистика - внутреннее специальное обучение</t>
+  </si>
+  <si>
+    <t>Отдел главных инженеров проектов</t>
+  </si>
+  <si>
+    <t>Баннова</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>08-12-2020</t>
+  </si>
+  <si>
+    <t>10-12-2020</t>
+  </si>
+  <si>
+    <t>Внешнее</t>
+  </si>
+  <si>
+    <t>Программист от бога</t>
+  </si>
+  <si>
+    <t>Бирюков</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>21-12-2020</t>
+  </si>
+  <si>
+    <t>Внешнее профессиональное 1</t>
+  </si>
+  <si>
+    <t>Отдел инженерных систем и технологий</t>
+  </si>
+  <si>
+    <t>Абрамова</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Юрьевна</t>
+  </si>
+  <si>
+    <t>Отдел эксплуатации</t>
+  </si>
+  <si>
+    <t>Гончаренко</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>14-05-2020</t>
+  </si>
+  <si>
+    <t>22-05-2020</t>
+  </si>
+  <si>
+    <t>Отдел генерального плана и инженерных изысканий</t>
+  </si>
+  <si>
     <t>Болотов</t>
   </si>
   <si>
     <t>Николай</t>
   </si>
   <si>
-    <t>Сергеевич</t>
-  </si>
-  <si>
-    <t>2020-10-06</t>
-  </si>
-  <si>
-    <t>2020-10-30</t>
-  </si>
-  <si>
-    <t>Внутреннее</t>
-  </si>
-  <si>
-    <t>Разведение голубей</t>
+    <t>06-10-2020</t>
+  </si>
+  <si>
+    <t>22-10-2020</t>
   </si>
   <si>
     <t>Группа перспективного совершенствования организации дорожного движения</t>
   </si>
   <si>
+    <t>Волков</t>
+  </si>
+  <si>
+    <t>Глеб</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
+    <t>02-12-2020</t>
+  </si>
+  <si>
+    <t>11-12-2020</t>
+  </si>
+  <si>
+    <t>Вскрытие замков</t>
+  </si>
+  <si>
+    <t>Юридический отдел</t>
+  </si>
+  <si>
+    <t>Билюкина</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Мирошкина</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>16-09-2020</t>
+  </si>
+  <si>
+    <t>Моем окна лучше всех</t>
+  </si>
+  <si>
+    <t>Отдел автоматизации</t>
+  </si>
+  <si>
+    <t>Воробьев</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Эдуардович</t>
+  </si>
+  <si>
+    <t>Отдел анализа данных</t>
+  </si>
+  <si>
+    <t>Александрийская</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
+  </si>
+  <si>
+    <t>11-11-2020</t>
+  </si>
+  <si>
+    <t>13-11-2020</t>
+  </si>
+  <si>
+    <t>Статистика - внешнее проф. обучение</t>
+  </si>
+  <si>
+    <t>Жилинский</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Альбинович</t>
+  </si>
+  <si>
+    <t>Администрация</t>
+  </si>
+  <si>
+    <t>Бридихина</t>
+  </si>
+  <si>
+    <t>Алена</t>
+  </si>
+  <si>
+    <t>Отдел документооборота</t>
+  </si>
+  <si>
+    <t>Пронин</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Управление аналитики и развития маршрутных сетей</t>
+  </si>
+  <si>
+    <t>Гайдай</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Отдел внедрения и сопровождения</t>
+  </si>
+  <si>
+    <t>Зубкова</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Денисовна</t>
+  </si>
+  <si>
+    <t>01-12-2020</t>
+  </si>
+  <si>
+    <t>Хихин</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Русланович</t>
+  </si>
+  <si>
+    <t>Отдел разработки</t>
+  </si>
+  <si>
+    <t>Агейкин</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>Авилова</t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Петровна</t>
+  </si>
+  <si>
+    <t>08-10-2020</t>
+  </si>
+  <si>
+    <t>19-10-2020</t>
+  </si>
+  <si>
+    <t>Статистика - внешнее общеобразовательное обучение</t>
+  </si>
+  <si>
+    <t>Антонов</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Багренин</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Михайлович</t>
+  </si>
+  <si>
+    <t>12-08-2020</t>
+  </si>
+  <si>
+    <t>21-08-2020</t>
+  </si>
+  <si>
+    <t>Статистика - внутреннее проф. обучение</t>
+  </si>
+  <si>
     <t>Бондаренко</t>
   </si>
   <si>
     <t>Владимир</t>
   </si>
   <si>
-    <t>Евгеньевич</t>
-  </si>
-  <si>
-    <t>2020-09-16</t>
-  </si>
-  <si>
-    <t>2020-09-23</t>
-  </si>
-  <si>
-    <t>Внешнее</t>
-  </si>
-  <si>
-    <t>Моем окна лучше всех</t>
-  </si>
-  <si>
     <t>Отдел бизнес-аналитики</t>
   </si>
   <si>
-    <t>Лузгачев</t>
-  </si>
-  <si>
-    <t>Юрий</t>
-  </si>
-  <si>
-    <t>Владимирович</t>
-  </si>
-  <si>
-    <t>2020-11-21</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>Статистика - внутреннее общеобразовательное обучение</t>
-  </si>
-  <si>
-    <t>Группа автоматики, связи и технических средств организации дорожного движения</t>
-  </si>
-  <si>
-    <t>Билюкина</t>
-  </si>
-  <si>
-    <t>Ирина</t>
-  </si>
-  <si>
-    <t>Сергеевна</t>
-  </si>
-  <si>
-    <t>2020-12-21</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>Внешнее профессиональное 1</t>
-  </si>
-  <si>
-    <t>Отдел инженерных систем и технологий</t>
-  </si>
-  <si>
-    <t>Антонов</t>
-  </si>
-  <si>
-    <t>Глеб</t>
-  </si>
-  <si>
-    <t>Александрович</t>
-  </si>
-  <si>
-    <t>2020-10-08</t>
-  </si>
-  <si>
-    <t>2020-10-19</t>
-  </si>
-  <si>
-    <t>Статистика - внешнее общеобразовательное обучение</t>
-  </si>
-  <si>
-    <t>Отдел разработки</t>
-  </si>
-  <si>
-    <t>Мирошкина</t>
-  </si>
-  <si>
-    <t>Яна</t>
-  </si>
-  <si>
-    <t>Юрьевна</t>
-  </si>
-  <si>
-    <t>Отдел автоматизации</t>
-  </si>
-  <si>
-    <t>Абрамова</t>
-  </si>
-  <si>
-    <t>Наталья</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>2020-12-15</t>
-  </si>
-  <si>
-    <t>Внутреннее профессиональное 1</t>
-  </si>
-  <si>
-    <t>Отдел эксплуатации</t>
-  </si>
-  <si>
     <t>Архаров</t>
   </si>
   <si>
@@ -190,328 +460,52 @@
     <t>Игоревич</t>
   </si>
   <si>
-    <t>2020-10-21</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
-    <t>Отдел разработки маршрутов</t>
-  </si>
-  <si>
-    <t>Гайдай</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>2020-12-02</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>Вскрытие замков</t>
-  </si>
-  <si>
-    <t>Отдел внедрения и сопровождения</t>
+    <t>Астахов</t>
+  </si>
+  <si>
+    <t>Станислав</t>
+  </si>
+  <si>
+    <t>Отдел методологии</t>
+  </si>
+  <si>
+    <t>Галенская</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>Аршавский</t>
+  </si>
+  <si>
+    <t>Рустам</t>
+  </si>
+  <si>
+    <t>Рамилиевич</t>
+  </si>
+  <si>
+    <t>Отдел медиаконтента и визуализации</t>
+  </si>
+  <si>
+    <t>Блинова</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>Евгеньевна</t>
+  </si>
+  <si>
+    <t>Отдел навигационного дизайна</t>
   </si>
   <si>
     <t>Васильев</t>
   </si>
   <si>
-    <t>Андрей</t>
-  </si>
-  <si>
     <t>Вадимович</t>
   </si>
   <si>
     <t>Отдел геоинформационных систем</t>
-  </si>
-  <si>
-    <t>Воробьев</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Эдуардович</t>
-  </si>
-  <si>
-    <t>Отдел анализа данных</t>
-  </si>
-  <si>
-    <t>Аршавский</t>
-  </si>
-  <si>
-    <t>Рустам</t>
-  </si>
-  <si>
-    <t>Рамилиевич</t>
-  </si>
-  <si>
-    <t>Отдел медиаконтента и визуализации</t>
-  </si>
-  <si>
-    <t>Автомонова</t>
-  </si>
-  <si>
-    <t>Анна</t>
-  </si>
-  <si>
-    <t>Михайловна</t>
-  </si>
-  <si>
-    <t>2020-12-23</t>
-  </si>
-  <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
-    <t>Я рисую граф лучше всех</t>
-  </si>
-  <si>
-    <t>Группа аналитического и проектного  обеспечения организации дорожного движения</t>
-  </si>
-  <si>
-    <t>Воронцов</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>2020-12-28</t>
-  </si>
-  <si>
-    <t>2020-12-30</t>
-  </si>
-  <si>
-    <t>Отдел по развитию транспортных систем и транспортной инфраструктуры</t>
-  </si>
-  <si>
-    <t>Галенская</t>
-  </si>
-  <si>
-    <t>Николаевна</t>
-  </si>
-  <si>
-    <t>Блинова</t>
-  </si>
-  <si>
-    <t>Евгения</t>
-  </si>
-  <si>
-    <t>Евгеньевна</t>
-  </si>
-  <si>
-    <t>2020-12-08</t>
-  </si>
-  <si>
-    <t>2020-12-10</t>
-  </si>
-  <si>
-    <t>Программист от бога</t>
-  </si>
-  <si>
-    <t>Отдел навигационного дизайна</t>
-  </si>
-  <si>
-    <t>Астахов</t>
-  </si>
-  <si>
-    <t>Станислав</t>
-  </si>
-  <si>
-    <t>Отдел методологии</t>
-  </si>
-  <si>
-    <t>Зубкова</t>
-  </si>
-  <si>
-    <t>Дарья</t>
-  </si>
-  <si>
-    <t>Денисовна</t>
-  </si>
-  <si>
-    <t>2020-12-01</t>
-  </si>
-  <si>
-    <t>Агейкин</t>
-  </si>
-  <si>
-    <t>Николаевич</t>
-  </si>
-  <si>
-    <t>Управление транспортного планирования</t>
-  </si>
-  <si>
-    <t>Александрийская</t>
-  </si>
-  <si>
-    <t>Ксения</t>
-  </si>
-  <si>
-    <t>Алексеевна</t>
-  </si>
-  <si>
-    <t>2020-11-11</t>
-  </si>
-  <si>
-    <t>2020-11-26</t>
-  </si>
-  <si>
-    <t>Статистика - внешнее проф. обучение</t>
-  </si>
-  <si>
-    <t>Авилова</t>
-  </si>
-  <si>
-    <t>Людмила</t>
-  </si>
-  <si>
-    <t>Петровна</t>
-  </si>
-  <si>
-    <t>Отдел генерального плана и инженерных изысканий</t>
-  </si>
-  <si>
-    <t>Жилинский</t>
-  </si>
-  <si>
-    <t>Игорь</t>
-  </si>
-  <si>
-    <t>Альбинович</t>
-  </si>
-  <si>
-    <t>Администрация</t>
-  </si>
-  <si>
-    <t>Бридихина</t>
-  </si>
-  <si>
-    <t>Алена</t>
-  </si>
-  <si>
-    <t>2020-11-10</t>
-  </si>
-  <si>
-    <t>2020-11-24</t>
-  </si>
-  <si>
-    <t>Статистика - внутреннее специальное обучение</t>
-  </si>
-  <si>
-    <t>Отдел документооборота</t>
-  </si>
-  <si>
-    <t>Баннова</t>
-  </si>
-  <si>
-    <t>Бирюков</t>
-  </si>
-  <si>
-    <t>Петрович</t>
-  </si>
-  <si>
-    <t>Гончаренко</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>Ахматова</t>
-  </si>
-  <si>
-    <t>Светлана</t>
-  </si>
-  <si>
-    <t>Павловна</t>
-  </si>
-  <si>
-    <t>2020-09-15</t>
-  </si>
-  <si>
-    <t>2020-09-24</t>
-  </si>
-  <si>
-    <t>Ефремов</t>
-  </si>
-  <si>
-    <t>Денисович</t>
-  </si>
-  <si>
-    <t>Гришенков</t>
-  </si>
-  <si>
-    <t>Отдел главных инженеров проектов</t>
-  </si>
-  <si>
-    <t>Пронин</t>
-  </si>
-  <si>
-    <t>Евгений</t>
-  </si>
-  <si>
-    <t>Управление аналитики и развития маршрутных сетей</t>
-  </si>
-  <si>
-    <t>Хихин</t>
-  </si>
-  <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t>Русланович</t>
-  </si>
-  <si>
-    <t>Абросимов</t>
-  </si>
-  <si>
-    <t>Артем</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
-  </si>
-  <si>
-    <t>Отдел контроля и исполнения контрактов</t>
-  </si>
-  <si>
-    <t>Багренин</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Михайлович</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>2020-08-21</t>
-  </si>
-  <si>
-    <t>Статистика - внутреннее проф. обучение</t>
-  </si>
-  <si>
-    <t>Волков</t>
-  </si>
-  <si>
-    <t>Викторович</t>
-  </si>
-  <si>
-    <t>Юридический отдел</t>
   </si>
 </sst>
 </file>
@@ -896,128 +890,128 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="4">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="5">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="6">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="7">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="8">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -1052,33 +1046,33 @@
         <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
         <v>65</v>
@@ -1098,16 +1092,16 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
@@ -1124,97 +1118,97 @@
         <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="13">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="16">
@@ -1222,48 +1216,48 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>99</v>
@@ -1274,311 +1268,311 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="22">
       <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
         <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="23">
       <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>121</v>
       </c>
-      <c r="C23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="24">
       <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
         <v>124</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
         <v>125</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" t="s">
-        <v>129</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="26">
       <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
         <v>131</v>
       </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>132</v>
       </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="28">
       <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>139</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>140</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
         <v>141</v>
       </c>
-      <c r="E28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="29">
       <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
       <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" t="s">
         <v>144</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="30">
@@ -1586,77 +1580,77 @@
         <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="31">
       <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="B31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="32">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="33">
@@ -1670,16 +1664,16 @@
         <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s">
         <v>156</v>
@@ -1696,45 +1690,45 @@
         <v>159</v>
       </c>
       <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" t="s">
         <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
       </c>
     </row>
     <row customHeight="true" ht="15" r="35">
       <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
         <v>163</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
